--- a/medicine/Enfance/Claire_Huchet-Bishop/Claire_Huchet-Bishop.xlsx
+++ b/medicine/Enfance/Claire_Huchet-Bishop/Claire_Huchet-Bishop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claire Huchet-Bishop, née Claire Huchet le 30 décembre 1898 à Genève et morte le 13 mars 1993 à Paris, est une bibliothécaire franco-américaine, conteuse, auteur pour la jeunesse et pour adultes.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jeanne Claire Huchet naît le 30 décembre 1898[1] (ou peut-être le 30 septembre 1898[2]) à Genève (selon les registres de l'INSEE)[1] où ses parents étaient de passage. Cependant, elle a toujours dit qu'elle était bretonne et les dictionnaires biographiques en anglais l'indiquent « born in Brittany »[2],[3],[4], tandis que Le Maitron hésite entre Genève et le Morbihan[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeanne Claire Huchet naît le 30 décembre 1898 (ou peut-être le 30 septembre 1898) à Genève (selon les registres de l'INSEE) où ses parents étaient de passage. Cependant, elle a toujours dit qu'elle était bretonne et les dictionnaires biographiques en anglais l'indiquent « born in Brittany » tandis que Le Maitron hésite entre Genève et le Morbihan.
 Après le lycée, Claire Huchet effectue des stages à la Juvenile Court à San Francisco (Californie). Elle y découvre l'initiative de L'Heure du conte, qui sera plus tard introduite en France. De retour à Paris, elle devient secrétaire-interprète de Mrs John L. Griffith, qui désire créer à Paris une bibliothèque publique pour la jeunesse. Elle obtient également le diplôme de bibliothécaire de la London University.
 En 1924, elle devient la première directrice de la bibliothèque parisienne pour enfants L'Heure Joyeuse, inaugurée cette année-là. Elle est assistée de Mathilde Leriche et de Marguerite Gruny.
 Elle épouse en 1929 le pianiste américain Frank Bishop, avec lequel elle retourne vivre aux États-Unis, où elle travaille comme bibliothécaire à New York. Son premier conte, The Five Chinese Brothers (« Les cinq frères chinois »)[Notes 1], rencontre un grand succès et l'encourage à écrire de nombreux autres livres pour la jeunesse. Elle a la double nationalité française et américaine.
-Elle donne des conférences sur la civilisation française et sur l'antisémitisme. Elle préside l'Amitié judéo-chrétienne de France de 1975 à 1981[6].
+Elle donne des conférences sur la civilisation française et sur l'antisémitisme. Elle préside l'Amitié judéo-chrétienne de France de 1975 à 1981.
 </t>
         </is>
       </c>
@@ -548,9 +562,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>En anglais
-Livres pour enfants
-1938 The Five Chinese Brothers (ill. Kurt Wiese)
+          <t>En anglais</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1938 The Five Chinese Brothers (ill. Kurt Wiese)
 1940 The King's Day (ill. Doris Spiegel)
 1941 The Ferryman
 1945 Augustus
@@ -573,15 +595,87 @@
 1969 The Man Who Lost His Head (ill. Robert McCloskey)
 1971 The Truffle Pig (ill. Kurt Wiese)
 1972 Johann Sebastian Bach:  Music Giant
-1973 Georgette
-Livres pour adultes
-1947 France Alive
+1973 Georgette</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claire_Huchet-Bishop</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_Huchet-Bishop</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En anglais</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Livres pour adultes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1947 France Alive
 1950 All Things Common
 1950 Boimondau: A French Community of Work
 1971 Jesus and Israel Jules Isaac
-1974 How Catholics look at Jews: Inquiries Into Italian, Spanish, and French Teaching Materials
-En français
-Les Cinq frères chinois, ill. Kurt Wiese, Bourrelier, 1946
+1974 How Catholics look at Jews: Inquiries Into Italian, Spanish, and French Teaching Materials</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Claire_Huchet-Bishop</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claire_Huchet-Bishop</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En français</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Cinq frères chinois, ill. Kurt Wiese, Bourrelier, 1946
 La ferme du bonheur, ill. Micheline Duvergier, Hachette, 1956
 L'appel du tour, ill. Serge Kristy, Hatier-Rageot, 1959
 Pour comprendre l'enfance de Jésus, Ed. du Cerf, 1969
